--- a/data/community.xlsx
+++ b/data/community.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A49FAF5-9901-6945-BC99-064F5E4DBAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA84CE9-7146-034B-AE60-BE8D109F2452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>無</t>
   </si>
   <si>
-    <t>林俊源</t>
-  </si>
-  <si>
     <t>長庚里</t>
   </si>
   <si>
@@ -114,6 +111,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">長庚里公佈欄 - &lt;a href="https://linevoom.line.me/user/_dU-v516WcUkyct-DQOQ46ViiEjoMzLNxDXwiMUc?utm_medium=osx&amp;utm_source=desktop&amp;utm_campaign=OA_Profile"&gt;LINE VOOM&lt;/a&gt;; &amp;nbsp;&amp;nbsp;
@@ -124,6 +122,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>&lt;a href="</t>
@@ -134,6 +133,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>https://lin.ee/4GA73Se</t>
@@ -143,6 +143,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">"&gt;LINE&lt;/a&gt;
@@ -153,6 +154,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">&lt;br&gt;
@@ -163,6 +165,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
@@ -173,6 +176,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>&lt;button class="button button-info"&gt; &lt;a href="</t>
@@ -183,6 +187,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>https://www.facebook.com/photo/?fbid=134906999289894&amp;set=pcb.134907292623198</t>
@@ -192,13 +197,11 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>"&gt;競選政見&lt;/a&gt; &lt;/button&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>謝嘉仁</t>
   </si>
   <si>
     <t>文青里</t>
@@ -233,6 +236,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
@@ -243,6 +247,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>&lt;button class="button button-info"&gt; &lt;a href="</t>
@@ -253,6 +258,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>https://www.facebook.com/groups/1951117865015671/permalink/5252322174895207/</t>
@@ -262,13 +268,11 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>"&gt;競選政見&lt;/a&gt; &lt;/button&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>黃景芳</t>
   </si>
   <si>
     <t>樂善里</t>
@@ -312,6 +316,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>&lt;button class="button button-info"&gt; &lt;a href="</t>
@@ -322,6 +327,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/</t>
@@ -331,6 +337,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>"&gt;競選政見&lt;/a&gt; &lt;/button&gt;</t>
@@ -437,12 +444,24 @@
     <t>COM-01-03.png</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>林俊源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝嘉仁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃景芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -485,12 +504,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -511,6 +532,13 @@
       <color theme="10"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -595,7 +623,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,9 +631,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -632,10 +657,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1769,10 +1794,10 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1800,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1827,13 +1852,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>10</v>
@@ -1849,199 +1874,199 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="246.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="110.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="246.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="127.25" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="Q5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>45</v>
+      <c r="R5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/community.xlsx
+++ b/data/community.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA84CE9-7146-034B-AE60-BE8D109F2452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6023751B-5381-3645-9B22-9744A27ECB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>title</t>
   </si>
@@ -49,9 +49,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>publish</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>jjoorryy888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://lin.ee/WwjxI19</t>
   </si>
   <si>
     <t>https://www.facebook.com/%E9%95%B7%E5%BA%9A%E9%87%8C%E6%9A%A8%E9%95%B7%E5%BA%9A%E9%86%AB%E8%AD%B7%E7%A4%BE%E5%8D%80-479679115425224/</t>
@@ -1791,13 +1785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1808,16 +1802,15 @@
     <col min="5" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="16.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="28" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="37.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33" style="1" customWidth="1"/>
-    <col min="18" max="18" width="100.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.33203125" style="1"/>
+    <col min="11" max="13" width="37.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="43.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33" style="1" customWidth="1"/>
+    <col min="17" max="17" width="100.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1">
+    <row r="1" spans="1:17" ht="20.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1849,16 +1842,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>10</v>
@@ -1869,218 +1862,209 @@
       <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="246.25" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="246.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+    <row r="3" spans="1:17" ht="110.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="110.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:17" ht="246.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="246.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+    <row r="5" spans="1:17" ht="127.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="127.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="R2" r:id="rId2" display="https://lin.ee/4GA73Se" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="R3" r:id="rId4" display="https://www.facebook.com/groups/1951117865015671/permalink/5252322174895207/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="R4" r:id="rId6" display="https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="R5" r:id="rId8" display="https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M2" r:id="rId9" xr:uid="{D07E8BE0-EB16-E045-AE7C-7D2A8193AA3A}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" display="https://lin.ee/4GA73Se" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" display="https://www.facebook.com/groups/1951117865015671/permalink/5252322174895207/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" display="https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" display="https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L2" r:id="rId9" xr:uid="{D07E8BE0-EB16-E045-AE7C-7D2A8193AA3A}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/community.xlsx
+++ b/data/community.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6023751B-5381-3645-9B22-9744A27ECB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61927DB8-F1F3-B845-92BA-01AB1AAA6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>jjoorryy888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E9%95%B7%E5%BA%9A%E9%87%8C%E6%9A%A8%E9%95%B7%E5%BA%9A%E9%86%AB%E8%AD%B7%E7%A4%BE%E5%8D%80-479679115425224/</t>
   </si>
   <si>
     <t>fig/XLK-221-Election/AiCity-2211-選舉公報-13.png</t>
@@ -448,6 +445,10 @@
   </si>
   <si>
     <t>黃景芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100000015764716</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1788,10 +1789,10 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1818,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1842,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
@@ -1865,13 +1866,13 @@
     </row>
     <row r="2" spans="1:17" ht="246.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1883,7 +1884,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -1894,163 +1895,163 @@
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
+      <c r="K2" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="110.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="246.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="127.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2065,6 +2066,7 @@
     <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="Q5" r:id="rId8" display="https://www.facebook.com/groups/a7.home.tw/permalink/5555033604535627/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="L2" r:id="rId9" xr:uid="{D07E8BE0-EB16-E045-AE7C-7D2A8193AA3A}"/>
+    <hyperlink ref="K2" r:id="rId10" xr:uid="{78F05680-0E71-FA4D-A501-437EE138BC29}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
